--- a/team_specific_matrix/York (NE)_B.xlsx
+++ b/team_specific_matrix/York (NE)_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.075</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,16 +1401,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1519,16 +1519,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.09259259259259259</v>
       </c>
     </row>
   </sheetData>
